--- a/data/trans_orig/P55S5-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P55S5-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{515B304E-1C71-4A1E-8604-143D5019BC91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{AE54D3B8-20FA-4103-914D-5EB709B448EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{E95686BD-B5C3-438D-97B4-99213CB2722D}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{5B3B08C0-91F1-4C41-BAA1-8D306DC318BC}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -516,7 +516,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA5EFC65-2893-422D-B04E-B59115DE8DE6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A35A426E-487B-4906-BD1B-477D39D94352}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">

--- a/data/trans_orig/P55S5-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P55S5-Provincia-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AE54D3B8-20FA-4103-914D-5EB709B448EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{BF19FEA1-4F64-4B13-AFFA-2EFF8D9B0E0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{5B3B08C0-91F1-4C41-BAA1-8D306DC318BC}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{01BEF001-0B77-42E7-AB16-B33E52186DC7}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -516,7 +516,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A35A426E-487B-4906-BD1B-477D39D94352}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B0A4A50-99DD-46FF-8BD6-407ACF51ED5A}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
